--- a/data/variables.xlsx
+++ b/data/variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilike\Documents\CEU\Courses\2020_Fall\Mandatory\DA2\Final_project\DA2_Final_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65609B3A-ECFE-468F-8719-66E82A2D028D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90DD5614-7F16-4767-94AE-C138D21C04A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{78B76E0F-AF40-48DA-84B5-ACA25A9CEBF2}"/>
   </bookViews>
@@ -107,7 +107,7 @@
     <t>number of reviews given by critics for the movie</t>
   </si>
   <si>
-    <t>gross total income (in millions)</t>
+    <t>gross total income (in millions, USD)</t>
   </si>
 </sst>
 </file>
@@ -484,7 +484,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
